--- a/HLS_man/COP19/COP19_man_sierra_leone.xlsx
+++ b/HLS_man/COP19/COP19_man_sierra_leone.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC30967-C7F0-4CDF-B4B6-63116E05D44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE21123-96EA-4115-9D2C-84A93BDB5EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>COP19_sierra_leone</t>
   </si>
@@ -153,34 +152,55 @@
     <t>prioritarian</t>
   </si>
   <si>
-    <t>Millenium development goals: eradicating global poverty. For the benefit of the worst off</t>
-  </si>
-  <si>
     <t>financial resources</t>
   </si>
   <si>
-    <t>fulfilling funding of developing countries, clear roadmap</t>
-  </si>
-  <si>
     <t>measures</t>
   </si>
   <si>
     <t>n.a.</t>
   </si>
   <si>
-    <t>New UNFCCC policy, adaptation, mitigation, other(Millenium Development Goals)</t>
-  </si>
-  <si>
     <t>align with LDC and African groups</t>
   </si>
   <si>
     <t xml:space="preserve">new UNFCCC policy </t>
   </si>
   <si>
-    <t>nearby future</t>
-  </si>
-  <si>
     <t>align with LDC, Africa Group, G77 and China, CRFN</t>
+  </si>
+  <si>
+    <t>sufficientarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explicitly referring to the reason for prescribing a balanced view of mitigation and adaptation to have the world reach sufficient targets. </t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>prescribing the need of developing countries to fulfill funding of developing countries</t>
+  </si>
+  <si>
+    <t>general normative statement</t>
+  </si>
+  <si>
+    <t>egalitarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains the value judgement and prescription of including women in new policies. Presenting an egalitarian view. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing the need to take measures, no distinctive distribution preferred. </t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>women, gender</t>
+  </si>
+  <si>
+    <t>adaptation, mitigation, Millenium Development Goals</t>
   </si>
 </sst>
 </file>
@@ -553,20 +573,20 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -595,7 +615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -603,7 +623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -611,7 +631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -619,7 +639,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -627,7 +647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -635,7 +655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -643,7 +663,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -651,7 +671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -659,7 +679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -667,7 +687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -675,7 +695,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -683,7 +703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -691,7 +711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -699,7 +719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -707,7 +727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -715,25 +735,25 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
@@ -741,10 +761,10 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -756,13 +776,13 @@
         <v>37</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -770,15 +790,33 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -786,7 +824,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -794,7 +832,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -802,7 +840,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -810,10 +848,10 @@
         <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -821,15 +859,33 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>

--- a/HLS_man/COP19/COP19_man_sierra_leone.xlsx
+++ b/HLS_man/COP19/COP19_man_sierra_leone.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE21123-96EA-4115-9D2C-84A93BDB5EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2242F805-05C2-4222-903F-FA2F7D005CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>COP19_sierra_leone</t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -140,67 +134,49 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
     <t>prioritarian</t>
   </si>
   <si>
     <t>financial resources</t>
   </si>
   <si>
-    <t>measures</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
     <t>align with LDC and African groups</t>
   </si>
   <si>
-    <t xml:space="preserve">new UNFCCC policy </t>
-  </si>
-  <si>
     <t>align with LDC, Africa Group, G77 and China, CRFN</t>
   </si>
   <si>
     <t>sufficientarian</t>
   </si>
   <si>
-    <t xml:space="preserve">explicitly referring to the reason for prescribing a balanced view of mitigation and adaptation to have the world reach sufficient targets. </t>
-  </si>
-  <si>
-    <t>present</t>
-  </si>
-  <si>
-    <t>prescribing the need of developing countries to fulfill funding of developing countries</t>
-  </si>
-  <si>
-    <t>general normative statement</t>
-  </si>
-  <si>
-    <t>egalitarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contains the value judgement and prescription of including women in new policies. Presenting an egalitarian view. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Prescribing the need to take measures, no distinctive distribution preferred. </t>
   </si>
   <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>women, gender</t>
-  </si>
-  <si>
-    <t>adaptation, mitigation, Millenium Development Goals</t>
+    <t>adaptation, mitigation</t>
+  </si>
+  <si>
+    <t>urgency</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No explicit distribution highlighted, call for focus on adaptation and mitigation motivated by the idea that everyone should reach a threshold. </t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles</t>
+  </si>
+  <si>
+    <t>proportional to commitments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prescribing the need of developed countries to fulfill funding of developing countries. Focus on redistribution from developed ot developing makes it prioritarian. </t>
+  </si>
+  <si>
+    <t>utilitarianism</t>
   </si>
 </sst>
 </file>
@@ -570,11 +546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,11 +558,12 @@
     <col min="1" max="1" width="53.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -594,303 +571,273 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E25" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" t="s">
-        <v>36</v>
       </c>
       <c r="F25" t="s">
         <v>46</v>
       </c>
-      <c r="G25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
